--- a/xlsx/政策_政策_政治_intext.xlsx
+++ b/xlsx/政策_政策_政治_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>政治</t>
   </si>
@@ -1470,1044 +1470,6 @@
   </si>
   <si>
     <t>维基语录</t>
-  </si>
-  <si>
-    <t>https://af.wikipedia.org/wiki/Politiek</t>
-  </si>
-  <si>
-    <t>Politiek – 南非荷兰语</t>
-  </si>
-  <si>
-    <t>https://als.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – Alemannisch</t>
-  </si>
-  <si>
-    <t>https://am.wikipedia.org/wiki/%E1%8D%96%E1%88%88%E1%89%B2%E1%8A%AB</t>
-  </si>
-  <si>
-    <t>ፖለቲካ – 阿姆哈拉语</t>
-  </si>
-  <si>
-    <t>https://an.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – 阿拉贡语</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D8%A9</t>
-  </si>
-  <si>
-    <t>سياسة – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://arz.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D9%87</t>
-  </si>
-  <si>
-    <t>سياسه – Egyptian Arabic</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Siyas%C9%99t</t>
-  </si>
-  <si>
-    <t>Siyasət – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://azb.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاست – South Azerbaijani</t>
-  </si>
-  <si>
-    <t>https://ba.wikipedia.org/wiki/%D0%A1%D3%99%D0%B9%D3%99%D1%81%D3%99%D1%82</t>
-  </si>
-  <si>
-    <t>Сәйәсәт – 巴什基尔语</t>
-  </si>
-  <si>
-    <t>https://bar.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – Bavarian</t>
-  </si>
-  <si>
-    <t>https://bat-smg.wikipedia.org/wiki/Puolit%C4%97ka</t>
-  </si>
-  <si>
-    <t>Puolitėka – Samogitian</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%9F%D0%B0%D0%BB%D1%96%D1%82%D1%8B%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Палітыка – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%9F%D0%B0%D0%BB%D1%96%D1%82%D1%8B%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Палітыка – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Политика – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bh.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>राजनीति – Bhojpuri</t>
-  </si>
-  <si>
-    <t>https://bm.wikipedia.org/wiki/Politiki</t>
-  </si>
-  <si>
-    <t>Politiki – 班巴拉语</t>
-  </si>
-  <si>
-    <t>https://bn.wikipedia.org/wiki/%E0%A6%B0%E0%A6%BE%E0%A6%9C%E0%A6%A8%E0%A7%80%E0%A6%A4%E0%A6%BF</t>
-  </si>
-  <si>
-    <t>রাজনীতি – 孟加拉语</t>
-  </si>
-  <si>
-    <t>https://bo.wikipedia.org/wiki/%E0%BD%86%E0%BD%96%E0%BC%8B%E0%BD%A6%E0%BE%B2%E0%BD%B2%E0%BD%91%E0%BC%8B</t>
-  </si>
-  <si>
-    <t>ཆབ་སྲིད་ – 藏语</t>
-  </si>
-  <si>
-    <t>https://bpy.wikipedia.org/wiki/%E0%A6%B0%E0%A6%BE%E0%A6%9C%E0%A6%A8%E0%A7%80%E0%A6%A4%E0%A6%BF</t>
-  </si>
-  <si>
-    <t>রাজনীতি – Bishnupriya</t>
-  </si>
-  <si>
-    <t>https://br.wikipedia.org/wiki/Politikerezh</t>
-  </si>
-  <si>
-    <t>Politikerezh – 布列塔尼语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://bxr.wikipedia.org/wiki/%D0%93%D2%AF%D1%80%D1%8D%D0%BD_%D1%82%D2%AF%D1%80%D1%8B%D0%BD_%D0%B1%D0%BE%D0%B4%D0%BE%D0%BB%D0%B3%D0%BE</t>
-  </si>
-  <si>
-    <t>Гүрэн түрын бодолго – Russia Buriat</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cdo.wikipedia.org/wiki/C%C3%A9ng-d%C3%AA</t>
-  </si>
-  <si>
-    <t>Céng-dê – Min Dong Chinese</t>
-  </si>
-  <si>
-    <t>https://ceb.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 宿务语</t>
-  </si>
-  <si>
-    <t>https://ch.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 查莫罗语</t>
-  </si>
-  <si>
-    <t>https://ckb.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%DB%95%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاسەت – 中库尔德语</t>
-  </si>
-  <si>
-    <t>https://co.wikipedia.org/wiki/Pulitica</t>
-  </si>
-  <si>
-    <t>Pulitica – 科西嘉语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 捷克语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Gwleidyddiaeth</t>
-  </si>
-  <si>
-    <t>Gwleidyddiaeth – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 德语</t>
-  </si>
-  <si>
-    <t>https://diq.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – Zazaki</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%A0%CE%BF%CE%BB%CE%B9%CF%84%CE%B9%CE%BA%CE%AE</t>
-  </si>
-  <si>
-    <t>Πολιτική – 希腊语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Politics</t>
-  </si>
-  <si>
-    <t>Politics – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Politiko</t>
-  </si>
-  <si>
-    <t>Politiko – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Poliitika</t>
-  </si>
-  <si>
-    <t>Poliitika – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://ext.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – Extremaduran</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاست – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Politiikka</t>
-  </si>
-  <si>
-    <t>Politiikka – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fiu-vro.wikipedia.org/wiki/Poliitiga</t>
-  </si>
-  <si>
-    <t>Poliitiga – Võro</t>
-  </si>
-  <si>
-    <t>https://fo.wikipedia.org/wiki/Politikkur</t>
-  </si>
-  <si>
-    <t>Politikkur – 法罗语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Politique</t>
-  </si>
-  <si>
-    <t>Politique – 法语</t>
-  </si>
-  <si>
-    <t>https://frr.wikipedia.org/wiki/Politiik</t>
-  </si>
-  <si>
-    <t>Politiik – 北弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://fur.wikipedia.org/wiki/Politiche</t>
-  </si>
-  <si>
-    <t>Politiche – 弗留利语</t>
-  </si>
-  <si>
-    <t>https://fy.wikipedia.org/wiki/Polityk</t>
-  </si>
-  <si>
-    <t>Polityk – 西弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://ga.wikipedia.org/wiki/Polait%C3%ADocht</t>
-  </si>
-  <si>
-    <t>Polaitíocht – 爱尔兰语</t>
-  </si>
-  <si>
-    <t>https://gd.wikipedia.org/wiki/Poilitigs</t>
-  </si>
-  <si>
-    <t>Poilitigs – 苏格兰盖尔语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://gn.wikipedia.org/wiki/Jokuaikuaa</t>
-  </si>
-  <si>
-    <t>Jokuaikuaa – 瓜拉尼语</t>
-  </si>
-  <si>
-    <t>https://gv.wikipedia.org/wiki/Politickaght</t>
-  </si>
-  <si>
-    <t>Politickaght – 马恩语</t>
-  </si>
-  <si>
-    <t>https://hak.wikipedia.org/wiki/Ch%E1%B9%B3n-chh%E1%B9%B3</t>
-  </si>
-  <si>
-    <t>Chṳn-chhṳ – 客家语</t>
-  </si>
-  <si>
-    <t>https://haw.wikipedia.org/wiki/K%C4%81lai%CA%BB%C4%81ina</t>
-  </si>
-  <si>
-    <t>Kālaiʻāina – 夏威夷语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%A4%D7%95%D7%9C%D7%99%D7%98%D7%99%D7%A7%D7%94</t>
-  </si>
-  <si>
-    <t>פוליטיקה – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>राजनीति – 印地语</t>
-  </si>
-  <si>
-    <t>https://hif.wikipedia.org/wiki/Rajniti</t>
-  </si>
-  <si>
-    <t>Rajniti – Fiji Hindi</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://ht.wikipedia.org/wiki/Politik_(non)</t>
-  </si>
-  <si>
-    <t>Politik (non) – 海地克里奥尔语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D5%94%D5%A1%D5%B2%D5%A1%D6%84%D5%A1%D5%AF%D5%A1%D5%B6%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6</t>
-  </si>
-  <si>
-    <t>Քաղաքականություն – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://ia.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – 国际语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ie.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – 国际文字（E）</t>
-  </si>
-  <si>
-    <t>https://ilo.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 伊洛卡诺语</t>
-  </si>
-  <si>
-    <t>https://io.wikipedia.org/wiki/Politiko</t>
-  </si>
-  <si>
-    <t>Politiko – 伊多语</t>
-  </si>
-  <si>
-    <t>https://is.wikipedia.org/wiki/Stj%C3%B3rnm%C3%A1l</t>
-  </si>
-  <si>
-    <t>Stjórnmál – 冰岛语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治 – 日语</t>
-  </si>
-  <si>
-    <t>https://jam.wikipedia.org/wiki/Palitix</t>
-  </si>
-  <si>
-    <t>Palitix – Jamaican Creole English</t>
-  </si>
-  <si>
-    <t>https://jbo.wikipedia.org/wiki/plajva</t>
-  </si>
-  <si>
-    <t>plajva – 逻辑语</t>
-  </si>
-  <si>
-    <t>https://jv.wikipedia.org/wiki/Pulitik</t>
-  </si>
-  <si>
-    <t>Pulitik – 爪哇语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%90</t>
-  </si>
-  <si>
-    <t>პოლიტიკა – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kab.wikipedia.org/wiki/Tasertit</t>
-  </si>
-  <si>
-    <t>Tasertit – 卡拜尔语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%A1%D0%B0%D1%8F%D1%81%D0%B0%D1%82</t>
-  </si>
-  <si>
-    <t>Саясат – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://kl.wikipedia.org/wiki/Politikki</t>
-  </si>
-  <si>
-    <t>Politikki – 格陵兰语</t>
-  </si>
-  <si>
-    <t>https://km.wikipedia.org/wiki/%E1%9E%93%E1%9E%99%E1%9F%84%E1%9E%94%E1%9E%B6%E1%9E%99</t>
-  </si>
-  <si>
-    <t>នយោបាយ – 高棉语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%B0%E0%B2%BE%E0%B2%9C%E0%B2%A8%E0%B3%80%E0%B2%A4%E0%B2%BF</t>
-  </si>
-  <si>
-    <t>ರಾಜನೀತಿ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%A0%95%EC%B9%98</t>
-  </si>
-  <si>
-    <t>정치 – 韩语</t>
-  </si>
-  <si>
-    <t>https://krc.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Политика – 卡拉恰伊巴尔卡尔语</t>
-  </si>
-  <si>
-    <t>https://ks.wikipedia.org/wiki/%D8%B3%D9%90%DB%8C%D8%A7%D8%B3%D9%8E%D8%AA</t>
-  </si>
-  <si>
-    <t>سِیاسَت – 克什米尔语</t>
-  </si>
-  <si>
-    <t>https://ky.wikipedia.org/wiki/%D0%A1%D0%B0%D1%8F%D1%81%D0%B0%D1%82</t>
-  </si>
-  <si>
-    <t>Саясат – 柯尔克孜语</t>
-  </si>
-  <si>
-    <t>https://la.wikipedia.org/wiki/Civilitas</t>
-  </si>
-  <si>
-    <t>Civilitas – 拉丁语</t>
-  </si>
-  <si>
-    <t>https://lad.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 拉迪诺语</t>
-  </si>
-  <si>
-    <t>https://lb.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 卢森堡语</t>
-  </si>
-  <si>
-    <t>https://li.wikipedia.org/wiki/Polletiek</t>
-  </si>
-  <si>
-    <t>Polletiek – 林堡语</t>
-  </si>
-  <si>
-    <t>https://lij.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – Ligurian</t>
-  </si>
-  <si>
-    <t>https://lmo.wikipedia.org/wiki/Pulitica</t>
-  </si>
-  <si>
-    <t>Pulitica – Lombard</t>
-  </si>
-  <si>
-    <t>https://ln.wikipedia.org/wiki/Polit%C3%ADki</t>
-  </si>
-  <si>
-    <t>Politíki – 林加拉语</t>
-  </si>
-  <si>
-    <t>https://lo.wikipedia.org/wiki/%E0%BA%81%E0%BA%B2%E0%BA%99%E0%BB%80%E0%BA%A1%E0%BA%B7%E0%BA%AD%E0%BA%87</t>
-  </si>
-  <si>
-    <t>ການເມືອງ – 老挝语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mai.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>राजनीति – 迈蒂利语</t>
-  </si>
-  <si>
-    <t>https://mg.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 马拉加斯语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Политика – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%B0%E0%B4%BE%E0%B4%B7%E0%B5%8D%E0%B4%9F%E0%B5%8D%E0%B4%B0%E0%B5%80%E0%B4%AF%E0%B4%82</t>
-  </si>
-  <si>
-    <t>രാഷ്ട്രീയം – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://mn.wikipedia.org/wiki/%D0%A3%D0%BB%D1%81_%D1%82%D3%A9%D1%80</t>
-  </si>
-  <si>
-    <t>Улс төр – 蒙古语</t>
-  </si>
-  <si>
-    <t>https://mr.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A4%A3</t>
-  </si>
-  <si>
-    <t>राजकारण – 马拉地语</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 马来语</t>
-  </si>
-  <si>
-    <t>https://mwl.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – 米兰德斯语</t>
-  </si>
-  <si>
-    <t>https://my.wikipedia.org/wiki/%E1%80%94%E1%80%AD%E1%80%AF%E1%80%84%E1%80%BA%E1%80%84%E1%80%B6%E1%80%9B%E1%80%B1%E1%80%B8</t>
-  </si>
-  <si>
-    <t>နိုင်ငံရေး – 缅甸语</t>
-  </si>
-  <si>
-    <t>https://mzn.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاست – 马赞德兰语</t>
-  </si>
-  <si>
-    <t>https://nah.wikipedia.org/wiki/Cemitquimatiliztli</t>
-  </si>
-  <si>
-    <t>Cemitquimatiliztli – Nāhuatl</t>
-  </si>
-  <si>
-    <t>https://nds.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 低地德语</t>
-  </si>
-  <si>
-    <t>https://nds-nl.wikipedia.org/wiki/Politiek</t>
-  </si>
-  <si>
-    <t>Politiek – 低萨克森语</t>
-  </si>
-  <si>
-    <t>https://ne.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>राजनीति – 尼泊尔语</t>
-  </si>
-  <si>
-    <t>https://new.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>राजनीति – 尼瓦尔语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Politiek</t>
-  </si>
-  <si>
-    <t>Politiek – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Politikk</t>
-  </si>
-  <si>
-    <t>Politikk – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Politikk</t>
-  </si>
-  <si>
-    <t>Politikk – 挪威语</t>
-  </si>
-  <si>
-    <t>https://nrm.wikipedia.org/wiki/Politique</t>
-  </si>
-  <si>
-    <t>Politique – Norman</t>
-  </si>
-  <si>
-    <t>https://oc.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – 奥克语</t>
-  </si>
-  <si>
-    <t>https://olo.wikipedia.org/wiki/Politiekku</t>
-  </si>
-  <si>
-    <t>Politiekku – Livvi-Karelian</t>
-  </si>
-  <si>
-    <t>https://os.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%C3%A6</t>
-  </si>
-  <si>
-    <t>Политикæ – 奥塞梯语</t>
-  </si>
-  <si>
-    <t>https://pa.wikipedia.org/wiki/%E0%A8%B8%E0%A8%BF%E0%A8%86%E0%A8%B8%E0%A8%A4</t>
-  </si>
-  <si>
-    <t>ਸਿਆਸਤ – 旁遮普语</t>
-  </si>
-  <si>
-    <t>https://pap.wikipedia.org/wiki/Pol%C3%ADtika</t>
-  </si>
-  <si>
-    <t>Polítika – 帕皮阿门托语</t>
-  </si>
-  <si>
-    <t>https://pcd.wikipedia.org/wiki/Politike</t>
-  </si>
-  <si>
-    <t>Politike – Picard</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Polityka</t>
-  </si>
-  <si>
-    <t>Polityka – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pms.wikipedia.org/wiki/Pol%C3%ACtica</t>
-  </si>
-  <si>
-    <t>Polìtica – Piedmontese</t>
-  </si>
-  <si>
-    <t>https://pnb.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاست – Western Punjabi</t>
-  </si>
-  <si>
-    <t>https://ps.wikipedia.org/wiki/%D9%88%D8%A7%DA%AF</t>
-  </si>
-  <si>
-    <t>واگ – 普什图语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Política – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://qu.wikipedia.org/wiki/Llaqta_pusay</t>
-  </si>
-  <si>
-    <t>Llaqta pusay – 克丘亚语</t>
-  </si>
-  <si>
-    <t>https://rm.wikipedia.org/wiki/Politica</t>
-  </si>
-  <si>
-    <t>Politica – 罗曼什语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Politic%C4%83</t>
-  </si>
-  <si>
-    <t>Politică – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://roa-rup.wikipedia.org/wiki/Politic%C3%A2</t>
-  </si>
-  <si>
-    <t>Politicâ – Aromanian</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Политика – 俄语</t>
-  </si>
-  <si>
-    <t>https://rue.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D1%96%D1%82%D1%96%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Політіка – Rusyn</t>
-  </si>
-  <si>
-    <t>https://sa.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF%E0%A4%83</t>
-  </si>
-  <si>
-    <t>राजनीतिः – 梵语</t>
-  </si>
-  <si>
-    <t>https://sah.wikipedia.org/wiki/%D0%91%D1%8D%D0%BB%D0%B8%D0%B8%D1%82%D0%B8%D0%BA%D1%8D</t>
-  </si>
-  <si>
-    <t>Бэлиитикэ – 萨哈语</t>
-  </si>
-  <si>
-    <t>https://sc.wikipedia.org/wiki/Pol%C3%ACtiga</t>
-  </si>
-  <si>
-    <t>Polìtiga – 萨丁语</t>
-  </si>
-  <si>
-    <t>https://scn.wikipedia.org/wiki/Pul%C3%ACtica</t>
-  </si>
-  <si>
-    <t>Pulìtica – 西西里语</t>
-  </si>
-  <si>
-    <t>https://sco.wikipedia.org/wiki/Politics</t>
-  </si>
-  <si>
-    <t>Politics – 苏格兰语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Politics</t>
-  </si>
-  <si>
-    <t>Politics – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sn.wikipedia.org/wiki/Matongerwo_eNyika</t>
-  </si>
-  <si>
-    <t>Matongerwo eNyika – 绍纳语</t>
-  </si>
-  <si>
-    <t>https://so.wikipedia.org/wiki/Siyaasad</t>
-  </si>
-  <si>
-    <t>Siyaasad – 索马里语</t>
-  </si>
-  <si>
-    <t>https://sq.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 阿尔巴尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Политика – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://stq.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – Saterland Frisian</t>
-  </si>
-  <si>
-    <t>https://su.wikipedia.org/wiki/Pulitik</t>
-  </si>
-  <si>
-    <t>Pulitik – 巽他语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Politik</t>
-  </si>
-  <si>
-    <t>Politik – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://sw.wikipedia.org/wiki/Siasa</t>
-  </si>
-  <si>
-    <t>Siasa – 斯瓦希里语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%85%E0%AE%B0%E0%AE%9A%E0%AE%BF%E0%AE%AF%E0%AE%B2%E0%AF%8D</t>
-  </si>
-  <si>
-    <t>அரசியல் – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://te.wikipedia.org/wiki/%E0%B0%B0%E0%B0%BE%E0%B0%9C%E0%B0%95%E0%B1%80%E0%B0%AF%E0%B0%BE%E0%B0%B2%E0%B1%81</t>
-  </si>
-  <si>
-    <t>రాజకీయాలు – 泰卢固语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D0%A1%D0%B8%D1%91%D1%81%D0%B0%D1%82</t>
-  </si>
-  <si>
-    <t>Сиёсат – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%87</t>
-  </si>
-  <si>
-    <t>การเมือง – 泰语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tpi.wikipedia.org/wiki/Politikis</t>
-  </si>
-  <si>
-    <t>Politikis – 托克皮辛语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Siyaset</t>
-  </si>
-  <si>
-    <t>Siyaset – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://ts.wikipedia.org/wiki/Politiki</t>
-  </si>
-  <si>
-    <t>Politiki – 聪加语</t>
-  </si>
-  <si>
-    <t>https://tt.wikipedia.org/wiki/%D0%A1%D3%99%D1%8F%D1%81%D3%99%D1%82</t>
-  </si>
-  <si>
-    <t>Сәясәт – 鞑靼语</t>
-  </si>
-  <si>
-    <t>https://tyv.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Политика – 图瓦语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D1%96%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Політика – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاست – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://uz.wikipedia.org/wiki/Siyosat</t>
-  </si>
-  <si>
-    <t>Siyosat – 乌兹别克语</t>
-  </si>
-  <si>
-    <t>https://vec.wikipedia.org/wiki/Pu%C5%82%C3%ACtega</t>
-  </si>
-  <si>
-    <t>Pułìtega – Venetian</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Ch%C3%ADnh_tr%E1%BB%8B</t>
-  </si>
-  <si>
-    <t>Chính trị – 越南语</t>
-  </si>
-  <si>
-    <t>https://vo.wikipedia.org/wiki/Bolit</t>
-  </si>
-  <si>
-    <t>Bolit – 沃拉普克语</t>
-  </si>
-  <si>
-    <t>https://wa.wikipedia.org/wiki/Politike</t>
-  </si>
-  <si>
-    <t>Politike – 瓦隆语</t>
-  </si>
-  <si>
-    <t>https://war.wikipedia.org/wiki/Politika</t>
-  </si>
-  <si>
-    <t>Politika – 瓦瑞语</t>
-  </si>
-  <si>
-    <t>https://wo.wikipedia.org/wiki/Politig</t>
-  </si>
-  <si>
-    <t>Politig – 沃洛夫语</t>
-  </si>
-  <si>
-    <t>https://wuu.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治 – 吴语</t>
-  </si>
-  <si>
-    <t>https://xmf.wikipedia.org/wiki/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%90</t>
-  </si>
-  <si>
-    <t>პოლიტიკა – Mingrelian</t>
-  </si>
-  <si>
-    <t>https://yi.wikipedia.org/wiki/%D7%A4%D7%90%D7%9C%D7%99%D7%98%D7%99%D7%A7</t>
-  </si>
-  <si>
-    <t>פאליטיק – 意第绪语</t>
-  </si>
-  <si>
-    <t>https://yo.wikipedia.org/wiki/%C3%8C%E1%B9%A3%C3%A8l%C3%BA</t>
-  </si>
-  <si>
-    <t>Ìṣèlú – 约鲁巴语</t>
-  </si>
-  <si>
-    <t>https://zea.wikipedia.org/wiki/Politiek</t>
-  </si>
-  <si>
-    <t>Politiek – Zeelandic</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/Ch%C3%A8ng-t%C4%AB</t>
-  </si>
-  <si>
-    <t>Chèng-tī – Chinese (Min Nan)</t>
-  </si>
-  <si>
-    <t>https://zh-yue.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治 – Cantonese</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4708,7 +3670,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -5201,7 +4163,7 @@
         <v>162</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -9963,5023 +8925,6 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>0</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1</v>
-      </c>
-      <c r="D246" t="n">
-        <v>245</v>
-      </c>
-      <c r="E246" t="s">
-        <v>485</v>
-      </c>
-      <c r="F246" t="s">
-        <v>486</v>
-      </c>
-      <c r="G246" t="n">
-        <v>1</v>
-      </c>
-      <c r="H246" t="s">
-        <v>4</v>
-      </c>
-      <c r="I246" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>0</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>246</v>
-      </c>
-      <c r="E247" t="s">
-        <v>487</v>
-      </c>
-      <c r="F247" t="s">
-        <v>488</v>
-      </c>
-      <c r="G247" t="n">
-        <v>1</v>
-      </c>
-      <c r="H247" t="s">
-        <v>4</v>
-      </c>
-      <c r="I247" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>0</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>247</v>
-      </c>
-      <c r="E248" t="s">
-        <v>489</v>
-      </c>
-      <c r="F248" t="s">
-        <v>490</v>
-      </c>
-      <c r="G248" t="n">
-        <v>1</v>
-      </c>
-      <c r="H248" t="s">
-        <v>4</v>
-      </c>
-      <c r="I248" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>0</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1</v>
-      </c>
-      <c r="D249" t="n">
-        <v>248</v>
-      </c>
-      <c r="E249" t="s">
-        <v>491</v>
-      </c>
-      <c r="F249" t="s">
-        <v>492</v>
-      </c>
-      <c r="G249" t="n">
-        <v>1</v>
-      </c>
-      <c r="H249" t="s">
-        <v>4</v>
-      </c>
-      <c r="I249" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>0</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1</v>
-      </c>
-      <c r="D250" t="n">
-        <v>249</v>
-      </c>
-      <c r="E250" t="s">
-        <v>493</v>
-      </c>
-      <c r="F250" t="s">
-        <v>494</v>
-      </c>
-      <c r="G250" t="n">
-        <v>1</v>
-      </c>
-      <c r="H250" t="s">
-        <v>4</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>250</v>
-      </c>
-      <c r="E251" t="s">
-        <v>495</v>
-      </c>
-      <c r="F251" t="s">
-        <v>496</v>
-      </c>
-      <c r="G251" t="n">
-        <v>1</v>
-      </c>
-      <c r="H251" t="s">
-        <v>4</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>251</v>
-      </c>
-      <c r="E252" t="s">
-        <v>497</v>
-      </c>
-      <c r="F252" t="s">
-        <v>498</v>
-      </c>
-      <c r="G252" t="n">
-        <v>1</v>
-      </c>
-      <c r="H252" t="s">
-        <v>4</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1</v>
-      </c>
-      <c r="D253" t="n">
-        <v>252</v>
-      </c>
-      <c r="E253" t="s">
-        <v>499</v>
-      </c>
-      <c r="F253" t="s">
-        <v>500</v>
-      </c>
-      <c r="G253" t="n">
-        <v>1</v>
-      </c>
-      <c r="H253" t="s">
-        <v>4</v>
-      </c>
-      <c r="I253" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1</v>
-      </c>
-      <c r="D254" t="n">
-        <v>253</v>
-      </c>
-      <c r="E254" t="s">
-        <v>501</v>
-      </c>
-      <c r="F254" t="s">
-        <v>502</v>
-      </c>
-      <c r="G254" t="n">
-        <v>1</v>
-      </c>
-      <c r="H254" t="s">
-        <v>4</v>
-      </c>
-      <c r="I254" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>0</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1</v>
-      </c>
-      <c r="D255" t="n">
-        <v>254</v>
-      </c>
-      <c r="E255" t="s">
-        <v>503</v>
-      </c>
-      <c r="F255" t="s">
-        <v>504</v>
-      </c>
-      <c r="G255" t="n">
-        <v>1</v>
-      </c>
-      <c r="H255" t="s">
-        <v>4</v>
-      </c>
-      <c r="I255" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1</v>
-      </c>
-      <c r="D256" t="n">
-        <v>255</v>
-      </c>
-      <c r="E256" t="s">
-        <v>505</v>
-      </c>
-      <c r="F256" t="s">
-        <v>506</v>
-      </c>
-      <c r="G256" t="n">
-        <v>1</v>
-      </c>
-      <c r="H256" t="s">
-        <v>4</v>
-      </c>
-      <c r="I256" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>0</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>256</v>
-      </c>
-      <c r="E257" t="s">
-        <v>507</v>
-      </c>
-      <c r="F257" t="s">
-        <v>508</v>
-      </c>
-      <c r="G257" t="n">
-        <v>1</v>
-      </c>
-      <c r="H257" t="s">
-        <v>4</v>
-      </c>
-      <c r="I257" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1</v>
-      </c>
-      <c r="D258" t="n">
-        <v>257</v>
-      </c>
-      <c r="E258" t="s">
-        <v>509</v>
-      </c>
-      <c r="F258" t="s">
-        <v>510</v>
-      </c>
-      <c r="G258" t="n">
-        <v>2</v>
-      </c>
-      <c r="H258" t="s">
-        <v>4</v>
-      </c>
-      <c r="I258" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1</v>
-      </c>
-      <c r="D259" t="n">
-        <v>258</v>
-      </c>
-      <c r="E259" t="s">
-        <v>511</v>
-      </c>
-      <c r="F259" t="s">
-        <v>512</v>
-      </c>
-      <c r="G259" t="n">
-        <v>1</v>
-      </c>
-      <c r="H259" t="s">
-        <v>4</v>
-      </c>
-      <c r="I259" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1</v>
-      </c>
-      <c r="D260" t="n">
-        <v>259</v>
-      </c>
-      <c r="E260" t="s">
-        <v>513</v>
-      </c>
-      <c r="F260" t="s">
-        <v>514</v>
-      </c>
-      <c r="G260" t="n">
-        <v>1</v>
-      </c>
-      <c r="H260" t="s">
-        <v>4</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>0</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1</v>
-      </c>
-      <c r="D261" t="n">
-        <v>260</v>
-      </c>
-      <c r="E261" t="s">
-        <v>515</v>
-      </c>
-      <c r="F261" t="s">
-        <v>516</v>
-      </c>
-      <c r="G261" t="n">
-        <v>1</v>
-      </c>
-      <c r="H261" t="s">
-        <v>4</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>0</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>261</v>
-      </c>
-      <c r="E262" t="s">
-        <v>517</v>
-      </c>
-      <c r="F262" t="s">
-        <v>518</v>
-      </c>
-      <c r="G262" t="n">
-        <v>1</v>
-      </c>
-      <c r="H262" t="s">
-        <v>4</v>
-      </c>
-      <c r="I262" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>0</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1</v>
-      </c>
-      <c r="D263" t="n">
-        <v>262</v>
-      </c>
-      <c r="E263" t="s">
-        <v>519</v>
-      </c>
-      <c r="F263" t="s">
-        <v>520</v>
-      </c>
-      <c r="G263" t="n">
-        <v>1</v>
-      </c>
-      <c r="H263" t="s">
-        <v>4</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>0</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1</v>
-      </c>
-      <c r="D264" t="n">
-        <v>263</v>
-      </c>
-      <c r="E264" t="s">
-        <v>521</v>
-      </c>
-      <c r="F264" t="s">
-        <v>522</v>
-      </c>
-      <c r="G264" t="n">
-        <v>1</v>
-      </c>
-      <c r="H264" t="s">
-        <v>4</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>0</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1</v>
-      </c>
-      <c r="D265" t="n">
-        <v>264</v>
-      </c>
-      <c r="E265" t="s">
-        <v>523</v>
-      </c>
-      <c r="F265" t="s">
-        <v>524</v>
-      </c>
-      <c r="G265" t="n">
-        <v>1</v>
-      </c>
-      <c r="H265" t="s">
-        <v>4</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1</v>
-      </c>
-      <c r="D266" t="n">
-        <v>265</v>
-      </c>
-      <c r="E266" t="s">
-        <v>525</v>
-      </c>
-      <c r="F266" t="s">
-        <v>526</v>
-      </c>
-      <c r="G266" t="n">
-        <v>1</v>
-      </c>
-      <c r="H266" t="s">
-        <v>4</v>
-      </c>
-      <c r="I266" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>266</v>
-      </c>
-      <c r="E267" t="s">
-        <v>527</v>
-      </c>
-      <c r="F267" t="s">
-        <v>528</v>
-      </c>
-      <c r="G267" t="n">
-        <v>1</v>
-      </c>
-      <c r="H267" t="s">
-        <v>4</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1</v>
-      </c>
-      <c r="D268" t="n">
-        <v>267</v>
-      </c>
-      <c r="E268" t="s">
-        <v>529</v>
-      </c>
-      <c r="F268" t="s">
-        <v>530</v>
-      </c>
-      <c r="G268" t="n">
-        <v>1</v>
-      </c>
-      <c r="H268" t="s">
-        <v>4</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>0</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1</v>
-      </c>
-      <c r="D269" t="n">
-        <v>268</v>
-      </c>
-      <c r="E269" t="s">
-        <v>531</v>
-      </c>
-      <c r="F269" t="s">
-        <v>532</v>
-      </c>
-      <c r="G269" t="n">
-        <v>1</v>
-      </c>
-      <c r="H269" t="s">
-        <v>4</v>
-      </c>
-      <c r="I269" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1</v>
-      </c>
-      <c r="D270" t="n">
-        <v>269</v>
-      </c>
-      <c r="E270" t="s">
-        <v>533</v>
-      </c>
-      <c r="F270" t="s">
-        <v>534</v>
-      </c>
-      <c r="G270" t="n">
-        <v>1</v>
-      </c>
-      <c r="H270" t="s">
-        <v>4</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1</v>
-      </c>
-      <c r="D271" t="n">
-        <v>270</v>
-      </c>
-      <c r="E271" t="s">
-        <v>535</v>
-      </c>
-      <c r="F271" t="s">
-        <v>536</v>
-      </c>
-      <c r="G271" t="n">
-        <v>1</v>
-      </c>
-      <c r="H271" t="s">
-        <v>4</v>
-      </c>
-      <c r="I271" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>0</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1</v>
-      </c>
-      <c r="D272" t="n">
-        <v>271</v>
-      </c>
-      <c r="E272" t="s">
-        <v>537</v>
-      </c>
-      <c r="F272" t="s">
-        <v>538</v>
-      </c>
-      <c r="G272" t="n">
-        <v>1</v>
-      </c>
-      <c r="H272" t="s">
-        <v>4</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>0</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1</v>
-      </c>
-      <c r="D273" t="n">
-        <v>272</v>
-      </c>
-      <c r="E273" t="s">
-        <v>539</v>
-      </c>
-      <c r="F273" t="s">
-        <v>540</v>
-      </c>
-      <c r="G273" t="n">
-        <v>1</v>
-      </c>
-      <c r="H273" t="s">
-        <v>4</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>0</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D274" t="n">
-        <v>273</v>
-      </c>
-      <c r="E274" t="s">
-        <v>541</v>
-      </c>
-      <c r="F274" t="s">
-        <v>542</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
-      </c>
-      <c r="H274" t="s">
-        <v>4</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>0</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1</v>
-      </c>
-      <c r="D275" t="n">
-        <v>274</v>
-      </c>
-      <c r="E275" t="s">
-        <v>543</v>
-      </c>
-      <c r="F275" t="s">
-        <v>544</v>
-      </c>
-      <c r="G275" t="n">
-        <v>1</v>
-      </c>
-      <c r="H275" t="s">
-        <v>4</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1</v>
-      </c>
-      <c r="D276" t="n">
-        <v>275</v>
-      </c>
-      <c r="E276" t="s">
-        <v>545</v>
-      </c>
-      <c r="F276" t="s">
-        <v>546</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1</v>
-      </c>
-      <c r="H276" t="s">
-        <v>4</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" t="n">
-        <v>276</v>
-      </c>
-      <c r="E277" t="s">
-        <v>547</v>
-      </c>
-      <c r="F277" t="s">
-        <v>548</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1</v>
-      </c>
-      <c r="H277" t="s">
-        <v>4</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1</v>
-      </c>
-      <c r="D278" t="n">
-        <v>277</v>
-      </c>
-      <c r="E278" t="s">
-        <v>549</v>
-      </c>
-      <c r="F278" t="s">
-        <v>550</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1</v>
-      </c>
-      <c r="H278" t="s">
-        <v>4</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1</v>
-      </c>
-      <c r="D279" t="n">
-        <v>278</v>
-      </c>
-      <c r="E279" t="s">
-        <v>551</v>
-      </c>
-      <c r="F279" t="s">
-        <v>552</v>
-      </c>
-      <c r="G279" t="n">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
-        <v>4</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>0</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>279</v>
-      </c>
-      <c r="E280" t="s">
-        <v>553</v>
-      </c>
-      <c r="F280" t="s">
-        <v>554</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>4</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1</v>
-      </c>
-      <c r="D281" t="n">
-        <v>280</v>
-      </c>
-      <c r="E281" t="s">
-        <v>555</v>
-      </c>
-      <c r="F281" t="s">
-        <v>556</v>
-      </c>
-      <c r="G281" t="n">
-        <v>2</v>
-      </c>
-      <c r="H281" t="s">
-        <v>4</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1</v>
-      </c>
-      <c r="D282" t="n">
-        <v>281</v>
-      </c>
-      <c r="E282" t="s">
-        <v>557</v>
-      </c>
-      <c r="F282" t="s">
-        <v>558</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1</v>
-      </c>
-      <c r="H282" t="s">
-        <v>4</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>282</v>
-      </c>
-      <c r="E283" t="s">
-        <v>559</v>
-      </c>
-      <c r="F283" t="s">
-        <v>560</v>
-      </c>
-      <c r="G283" t="n">
-        <v>1</v>
-      </c>
-      <c r="H283" t="s">
-        <v>4</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>0</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>283</v>
-      </c>
-      <c r="E284" t="s">
-        <v>561</v>
-      </c>
-      <c r="F284" t="s">
-        <v>562</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1</v>
-      </c>
-      <c r="H284" t="s">
-        <v>4</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>284</v>
-      </c>
-      <c r="E285" t="s">
-        <v>563</v>
-      </c>
-      <c r="F285" t="s">
-        <v>564</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1</v>
-      </c>
-      <c r="H285" t="s">
-        <v>4</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1</v>
-      </c>
-      <c r="D286" t="n">
-        <v>285</v>
-      </c>
-      <c r="E286" t="s">
-        <v>565</v>
-      </c>
-      <c r="F286" t="s">
-        <v>566</v>
-      </c>
-      <c r="G286" t="n">
-        <v>1</v>
-      </c>
-      <c r="H286" t="s">
-        <v>4</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1</v>
-      </c>
-      <c r="D287" t="n">
-        <v>286</v>
-      </c>
-      <c r="E287" t="s">
-        <v>567</v>
-      </c>
-      <c r="F287" t="s">
-        <v>568</v>
-      </c>
-      <c r="G287" t="n">
-        <v>1</v>
-      </c>
-      <c r="H287" t="s">
-        <v>4</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1</v>
-      </c>
-      <c r="D288" t="n">
-        <v>287</v>
-      </c>
-      <c r="E288" t="s">
-        <v>569</v>
-      </c>
-      <c r="F288" t="s">
-        <v>570</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1</v>
-      </c>
-      <c r="H288" t="s">
-        <v>4</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1</v>
-      </c>
-      <c r="D289" t="n">
-        <v>288</v>
-      </c>
-      <c r="E289" t="s">
-        <v>571</v>
-      </c>
-      <c r="F289" t="s">
-        <v>572</v>
-      </c>
-      <c r="G289" t="n">
-        <v>1</v>
-      </c>
-      <c r="H289" t="s">
-        <v>4</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>0</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1</v>
-      </c>
-      <c r="D290" t="n">
-        <v>289</v>
-      </c>
-      <c r="E290" t="s">
-        <v>573</v>
-      </c>
-      <c r="F290" t="s">
-        <v>574</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1</v>
-      </c>
-      <c r="H290" t="s">
-        <v>4</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>290</v>
-      </c>
-      <c r="E291" t="s">
-        <v>575</v>
-      </c>
-      <c r="F291" t="s">
-        <v>576</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1</v>
-      </c>
-      <c r="H291" t="s">
-        <v>4</v>
-      </c>
-      <c r="I291" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>291</v>
-      </c>
-      <c r="E292" t="s">
-        <v>577</v>
-      </c>
-      <c r="F292" t="s">
-        <v>578</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1</v>
-      </c>
-      <c r="H292" t="s">
-        <v>4</v>
-      </c>
-      <c r="I292" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>0</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1</v>
-      </c>
-      <c r="D293" t="n">
-        <v>292</v>
-      </c>
-      <c r="E293" t="s">
-        <v>579</v>
-      </c>
-      <c r="F293" t="s">
-        <v>580</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1</v>
-      </c>
-      <c r="H293" t="s">
-        <v>4</v>
-      </c>
-      <c r="I293" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1</v>
-      </c>
-      <c r="D294" t="n">
-        <v>293</v>
-      </c>
-      <c r="E294" t="s">
-        <v>581</v>
-      </c>
-      <c r="F294" t="s">
-        <v>582</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1</v>
-      </c>
-      <c r="H294" t="s">
-        <v>4</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>0</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1</v>
-      </c>
-      <c r="D295" t="n">
-        <v>294</v>
-      </c>
-      <c r="E295" t="s">
-        <v>583</v>
-      </c>
-      <c r="F295" t="s">
-        <v>584</v>
-      </c>
-      <c r="G295" t="n">
-        <v>1</v>
-      </c>
-      <c r="H295" t="s">
-        <v>4</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1</v>
-      </c>
-      <c r="D296" t="n">
-        <v>295</v>
-      </c>
-      <c r="E296" t="s">
-        <v>585</v>
-      </c>
-      <c r="F296" t="s">
-        <v>586</v>
-      </c>
-      <c r="G296" t="n">
-        <v>1</v>
-      </c>
-      <c r="H296" t="s">
-        <v>4</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>296</v>
-      </c>
-      <c r="E297" t="s">
-        <v>587</v>
-      </c>
-      <c r="F297" t="s">
-        <v>588</v>
-      </c>
-      <c r="G297" t="n">
-        <v>1</v>
-      </c>
-      <c r="H297" t="s">
-        <v>4</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1</v>
-      </c>
-      <c r="D298" t="n">
-        <v>297</v>
-      </c>
-      <c r="E298" t="s">
-        <v>589</v>
-      </c>
-      <c r="F298" t="s">
-        <v>590</v>
-      </c>
-      <c r="G298" t="n">
-        <v>1</v>
-      </c>
-      <c r="H298" t="s">
-        <v>4</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>298</v>
-      </c>
-      <c r="E299" t="s">
-        <v>591</v>
-      </c>
-      <c r="F299" t="s">
-        <v>592</v>
-      </c>
-      <c r="G299" t="n">
-        <v>1</v>
-      </c>
-      <c r="H299" t="s">
-        <v>4</v>
-      </c>
-      <c r="I299" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>299</v>
-      </c>
-      <c r="E300" t="s">
-        <v>593</v>
-      </c>
-      <c r="F300" t="s">
-        <v>594</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1</v>
-      </c>
-      <c r="H300" t="s">
-        <v>4</v>
-      </c>
-      <c r="I300" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1</v>
-      </c>
-      <c r="D301" t="n">
-        <v>300</v>
-      </c>
-      <c r="E301" t="s">
-        <v>595</v>
-      </c>
-      <c r="F301" t="s">
-        <v>596</v>
-      </c>
-      <c r="G301" t="n">
-        <v>1</v>
-      </c>
-      <c r="H301" t="s">
-        <v>4</v>
-      </c>
-      <c r="I301" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>0</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>301</v>
-      </c>
-      <c r="E302" t="s">
-        <v>597</v>
-      </c>
-      <c r="F302" t="s">
-        <v>598</v>
-      </c>
-      <c r="G302" t="n">
-        <v>1</v>
-      </c>
-      <c r="H302" t="s">
-        <v>4</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>302</v>
-      </c>
-      <c r="E303" t="s">
-        <v>599</v>
-      </c>
-      <c r="F303" t="s">
-        <v>600</v>
-      </c>
-      <c r="G303" t="n">
-        <v>1</v>
-      </c>
-      <c r="H303" t="s">
-        <v>4</v>
-      </c>
-      <c r="I303" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>303</v>
-      </c>
-      <c r="E304" t="s">
-        <v>601</v>
-      </c>
-      <c r="F304" t="s">
-        <v>602</v>
-      </c>
-      <c r="G304" t="n">
-        <v>1</v>
-      </c>
-      <c r="H304" t="s">
-        <v>4</v>
-      </c>
-      <c r="I304" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="s">
-        <v>603</v>
-      </c>
-      <c r="F305" t="s">
-        <v>604</v>
-      </c>
-      <c r="G305" t="n">
-        <v>1</v>
-      </c>
-      <c r="H305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I305" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>0</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>305</v>
-      </c>
-      <c r="E306" t="s">
-        <v>605</v>
-      </c>
-      <c r="F306" t="s">
-        <v>606</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1</v>
-      </c>
-      <c r="H306" t="s">
-        <v>4</v>
-      </c>
-      <c r="I306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>306</v>
-      </c>
-      <c r="E307" t="s">
-        <v>607</v>
-      </c>
-      <c r="F307" t="s">
-        <v>608</v>
-      </c>
-      <c r="G307" t="n">
-        <v>1</v>
-      </c>
-      <c r="H307" t="s">
-        <v>4</v>
-      </c>
-      <c r="I307" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>0</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>307</v>
-      </c>
-      <c r="E308" t="s">
-        <v>609</v>
-      </c>
-      <c r="F308" t="s">
-        <v>610</v>
-      </c>
-      <c r="G308" t="n">
-        <v>1</v>
-      </c>
-      <c r="H308" t="s">
-        <v>4</v>
-      </c>
-      <c r="I308" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>308</v>
-      </c>
-      <c r="E309" t="s">
-        <v>611</v>
-      </c>
-      <c r="F309" t="s">
-        <v>612</v>
-      </c>
-      <c r="G309" t="n">
-        <v>1</v>
-      </c>
-      <c r="H309" t="s">
-        <v>4</v>
-      </c>
-      <c r="I309" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>0</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>309</v>
-      </c>
-      <c r="E310" t="s">
-        <v>613</v>
-      </c>
-      <c r="F310" t="s">
-        <v>614</v>
-      </c>
-      <c r="G310" t="n">
-        <v>1</v>
-      </c>
-      <c r="H310" t="s">
-        <v>4</v>
-      </c>
-      <c r="I310" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1</v>
-      </c>
-      <c r="D311" t="n">
-        <v>310</v>
-      </c>
-      <c r="E311" t="s">
-        <v>615</v>
-      </c>
-      <c r="F311" t="s">
-        <v>616</v>
-      </c>
-      <c r="G311" t="n">
-        <v>1</v>
-      </c>
-      <c r="H311" t="s">
-        <v>4</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>0</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>311</v>
-      </c>
-      <c r="E312" t="s">
-        <v>617</v>
-      </c>
-      <c r="F312" t="s">
-        <v>618</v>
-      </c>
-      <c r="G312" t="n">
-        <v>1</v>
-      </c>
-      <c r="H312" t="s">
-        <v>4</v>
-      </c>
-      <c r="I312" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1</v>
-      </c>
-      <c r="D313" t="n">
-        <v>312</v>
-      </c>
-      <c r="E313" t="s">
-        <v>619</v>
-      </c>
-      <c r="F313" t="s">
-        <v>620</v>
-      </c>
-      <c r="G313" t="n">
-        <v>1</v>
-      </c>
-      <c r="H313" t="s">
-        <v>4</v>
-      </c>
-      <c r="I313" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>0</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>313</v>
-      </c>
-      <c r="E314" t="s">
-        <v>621</v>
-      </c>
-      <c r="F314" t="s">
-        <v>622</v>
-      </c>
-      <c r="G314" t="n">
-        <v>1</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="s">
-        <v>0</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>314</v>
-      </c>
-      <c r="E315" t="s">
-        <v>623</v>
-      </c>
-      <c r="F315" t="s">
-        <v>624</v>
-      </c>
-      <c r="G315" t="n">
-        <v>1</v>
-      </c>
-      <c r="H315" t="s">
-        <v>4</v>
-      </c>
-      <c r="I315" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>315</v>
-      </c>
-      <c r="E316" t="s">
-        <v>625</v>
-      </c>
-      <c r="F316" t="s">
-        <v>626</v>
-      </c>
-      <c r="G316" t="n">
-        <v>1</v>
-      </c>
-      <c r="H316" t="s">
-        <v>4</v>
-      </c>
-      <c r="I316" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>316</v>
-      </c>
-      <c r="E317" t="s">
-        <v>627</v>
-      </c>
-      <c r="F317" t="s">
-        <v>628</v>
-      </c>
-      <c r="G317" t="n">
-        <v>1</v>
-      </c>
-      <c r="H317" t="s">
-        <v>4</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="s">
-        <v>0</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>317</v>
-      </c>
-      <c r="E318" t="s">
-        <v>629</v>
-      </c>
-      <c r="F318" t="s">
-        <v>630</v>
-      </c>
-      <c r="G318" t="n">
-        <v>1</v>
-      </c>
-      <c r="H318" t="s">
-        <v>4</v>
-      </c>
-      <c r="I318" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>318</v>
-      </c>
-      <c r="E319" t="s">
-        <v>631</v>
-      </c>
-      <c r="F319" t="s">
-        <v>632</v>
-      </c>
-      <c r="G319" t="n">
-        <v>1</v>
-      </c>
-      <c r="H319" t="s">
-        <v>4</v>
-      </c>
-      <c r="I319" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="s">
-        <v>0</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1</v>
-      </c>
-      <c r="D320" t="n">
-        <v>319</v>
-      </c>
-      <c r="E320" t="s">
-        <v>633</v>
-      </c>
-      <c r="F320" t="s">
-        <v>634</v>
-      </c>
-      <c r="G320" t="n">
-        <v>1</v>
-      </c>
-      <c r="H320" t="s">
-        <v>4</v>
-      </c>
-      <c r="I320" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>0</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1</v>
-      </c>
-      <c r="D321" t="n">
-        <v>320</v>
-      </c>
-      <c r="E321" t="s">
-        <v>635</v>
-      </c>
-      <c r="F321" t="s">
-        <v>636</v>
-      </c>
-      <c r="G321" t="n">
-        <v>1</v>
-      </c>
-      <c r="H321" t="s">
-        <v>4</v>
-      </c>
-      <c r="I321" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1</v>
-      </c>
-      <c r="D322" t="n">
-        <v>321</v>
-      </c>
-      <c r="E322" t="s">
-        <v>637</v>
-      </c>
-      <c r="F322" t="s">
-        <v>638</v>
-      </c>
-      <c r="G322" t="n">
-        <v>1</v>
-      </c>
-      <c r="H322" t="s">
-        <v>4</v>
-      </c>
-      <c r="I322" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="s">
-        <v>0</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1</v>
-      </c>
-      <c r="D323" t="n">
-        <v>322</v>
-      </c>
-      <c r="E323" t="s">
-        <v>639</v>
-      </c>
-      <c r="F323" t="s">
-        <v>640</v>
-      </c>
-      <c r="G323" t="n">
-        <v>1</v>
-      </c>
-      <c r="H323" t="s">
-        <v>4</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1</v>
-      </c>
-      <c r="D324" t="n">
-        <v>323</v>
-      </c>
-      <c r="E324" t="s">
-        <v>641</v>
-      </c>
-      <c r="F324" t="s">
-        <v>642</v>
-      </c>
-      <c r="G324" t="n">
-        <v>1</v>
-      </c>
-      <c r="H324" t="s">
-        <v>4</v>
-      </c>
-      <c r="I324" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1</v>
-      </c>
-      <c r="D325" t="n">
-        <v>324</v>
-      </c>
-      <c r="E325" t="s">
-        <v>643</v>
-      </c>
-      <c r="F325" t="s">
-        <v>644</v>
-      </c>
-      <c r="G325" t="n">
-        <v>1</v>
-      </c>
-      <c r="H325" t="s">
-        <v>4</v>
-      </c>
-      <c r="I325" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" t="n">
-        <v>325</v>
-      </c>
-      <c r="E326" t="s">
-        <v>645</v>
-      </c>
-      <c r="F326" t="s">
-        <v>646</v>
-      </c>
-      <c r="G326" t="n">
-        <v>1</v>
-      </c>
-      <c r="H326" t="s">
-        <v>4</v>
-      </c>
-      <c r="I326" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="s">
-        <v>0</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1</v>
-      </c>
-      <c r="D327" t="n">
-        <v>326</v>
-      </c>
-      <c r="E327" t="s">
-        <v>647</v>
-      </c>
-      <c r="F327" t="s">
-        <v>648</v>
-      </c>
-      <c r="G327" t="n">
-        <v>1</v>
-      </c>
-      <c r="H327" t="s">
-        <v>4</v>
-      </c>
-      <c r="I327" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" t="n">
-        <v>327</v>
-      </c>
-      <c r="E328" t="s">
-        <v>649</v>
-      </c>
-      <c r="F328" t="s">
-        <v>650</v>
-      </c>
-      <c r="G328" t="n">
-        <v>1</v>
-      </c>
-      <c r="H328" t="s">
-        <v>4</v>
-      </c>
-      <c r="I328" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" t="n">
-        <v>328</v>
-      </c>
-      <c r="E329" t="s">
-        <v>651</v>
-      </c>
-      <c r="F329" t="s">
-        <v>652</v>
-      </c>
-      <c r="G329" t="n">
-        <v>1</v>
-      </c>
-      <c r="H329" t="s">
-        <v>4</v>
-      </c>
-      <c r="I329" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>329</v>
-      </c>
-      <c r="E330" t="s">
-        <v>653</v>
-      </c>
-      <c r="F330" t="s">
-        <v>654</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1</v>
-      </c>
-      <c r="H330" t="s">
-        <v>4</v>
-      </c>
-      <c r="I330" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" t="n">
-        <v>330</v>
-      </c>
-      <c r="E331" t="s">
-        <v>655</v>
-      </c>
-      <c r="F331" t="s">
-        <v>656</v>
-      </c>
-      <c r="G331" t="n">
-        <v>1</v>
-      </c>
-      <c r="H331" t="s">
-        <v>4</v>
-      </c>
-      <c r="I331" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1</v>
-      </c>
-      <c r="D332" t="n">
-        <v>331</v>
-      </c>
-      <c r="E332" t="s">
-        <v>657</v>
-      </c>
-      <c r="F332" t="s">
-        <v>658</v>
-      </c>
-      <c r="G332" t="n">
-        <v>1</v>
-      </c>
-      <c r="H332" t="s">
-        <v>4</v>
-      </c>
-      <c r="I332" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1</v>
-      </c>
-      <c r="D333" t="n">
-        <v>332</v>
-      </c>
-      <c r="E333" t="s">
-        <v>659</v>
-      </c>
-      <c r="F333" t="s">
-        <v>660</v>
-      </c>
-      <c r="G333" t="n">
-        <v>1</v>
-      </c>
-      <c r="H333" t="s">
-        <v>4</v>
-      </c>
-      <c r="I333" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="s">
-        <v>0</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1</v>
-      </c>
-      <c r="D334" t="n">
-        <v>333</v>
-      </c>
-      <c r="E334" t="s">
-        <v>661</v>
-      </c>
-      <c r="F334" t="s">
-        <v>662</v>
-      </c>
-      <c r="G334" t="n">
-        <v>1</v>
-      </c>
-      <c r="H334" t="s">
-        <v>4</v>
-      </c>
-      <c r="I334" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="s">
-        <v>0</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1</v>
-      </c>
-      <c r="D335" t="n">
-        <v>334</v>
-      </c>
-      <c r="E335" t="s">
-        <v>663</v>
-      </c>
-      <c r="F335" t="s">
-        <v>664</v>
-      </c>
-      <c r="G335" t="n">
-        <v>1</v>
-      </c>
-      <c r="H335" t="s">
-        <v>4</v>
-      </c>
-      <c r="I335" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1</v>
-      </c>
-      <c r="D336" t="n">
-        <v>335</v>
-      </c>
-      <c r="E336" t="s">
-        <v>665</v>
-      </c>
-      <c r="F336" t="s">
-        <v>666</v>
-      </c>
-      <c r="G336" t="n">
-        <v>1</v>
-      </c>
-      <c r="H336" t="s">
-        <v>4</v>
-      </c>
-      <c r="I336" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1</v>
-      </c>
-      <c r="D337" t="n">
-        <v>336</v>
-      </c>
-      <c r="E337" t="s">
-        <v>667</v>
-      </c>
-      <c r="F337" t="s">
-        <v>668</v>
-      </c>
-      <c r="G337" t="n">
-        <v>1</v>
-      </c>
-      <c r="H337" t="s">
-        <v>4</v>
-      </c>
-      <c r="I337" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1</v>
-      </c>
-      <c r="D338" t="n">
-        <v>337</v>
-      </c>
-      <c r="E338" t="s">
-        <v>669</v>
-      </c>
-      <c r="F338" t="s">
-        <v>670</v>
-      </c>
-      <c r="G338" t="n">
-        <v>1</v>
-      </c>
-      <c r="H338" t="s">
-        <v>4</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1</v>
-      </c>
-      <c r="D339" t="n">
-        <v>338</v>
-      </c>
-      <c r="E339" t="s">
-        <v>671</v>
-      </c>
-      <c r="F339" t="s">
-        <v>672</v>
-      </c>
-      <c r="G339" t="n">
-        <v>1</v>
-      </c>
-      <c r="H339" t="s">
-        <v>4</v>
-      </c>
-      <c r="I339" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1</v>
-      </c>
-      <c r="D340" t="n">
-        <v>339</v>
-      </c>
-      <c r="E340" t="s">
-        <v>673</v>
-      </c>
-      <c r="F340" t="s">
-        <v>674</v>
-      </c>
-      <c r="G340" t="n">
-        <v>1</v>
-      </c>
-      <c r="H340" t="s">
-        <v>4</v>
-      </c>
-      <c r="I340" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1</v>
-      </c>
-      <c r="D341" t="n">
-        <v>340</v>
-      </c>
-      <c r="E341" t="s">
-        <v>675</v>
-      </c>
-      <c r="F341" t="s">
-        <v>676</v>
-      </c>
-      <c r="G341" t="n">
-        <v>1</v>
-      </c>
-      <c r="H341" t="s">
-        <v>4</v>
-      </c>
-      <c r="I341" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" t="n">
-        <v>341</v>
-      </c>
-      <c r="E342" t="s">
-        <v>677</v>
-      </c>
-      <c r="F342" t="s">
-        <v>678</v>
-      </c>
-      <c r="G342" t="n">
-        <v>1</v>
-      </c>
-      <c r="H342" t="s">
-        <v>4</v>
-      </c>
-      <c r="I342" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="s">
-        <v>0</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1</v>
-      </c>
-      <c r="D343" t="n">
-        <v>342</v>
-      </c>
-      <c r="E343" t="s">
-        <v>679</v>
-      </c>
-      <c r="F343" t="s">
-        <v>680</v>
-      </c>
-      <c r="G343" t="n">
-        <v>1</v>
-      </c>
-      <c r="H343" t="s">
-        <v>4</v>
-      </c>
-      <c r="I343" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="s">
-        <v>0</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1</v>
-      </c>
-      <c r="D344" t="n">
-        <v>343</v>
-      </c>
-      <c r="E344" t="s">
-        <v>681</v>
-      </c>
-      <c r="F344" t="s">
-        <v>682</v>
-      </c>
-      <c r="G344" t="n">
-        <v>1</v>
-      </c>
-      <c r="H344" t="s">
-        <v>4</v>
-      </c>
-      <c r="I344" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="s">
-        <v>0</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1</v>
-      </c>
-      <c r="D345" t="n">
-        <v>344</v>
-      </c>
-      <c r="E345" t="s">
-        <v>683</v>
-      </c>
-      <c r="F345" t="s">
-        <v>684</v>
-      </c>
-      <c r="G345" t="n">
-        <v>1</v>
-      </c>
-      <c r="H345" t="s">
-        <v>4</v>
-      </c>
-      <c r="I345" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1</v>
-      </c>
-      <c r="D346" t="n">
-        <v>345</v>
-      </c>
-      <c r="E346" t="s">
-        <v>685</v>
-      </c>
-      <c r="F346" t="s">
-        <v>686</v>
-      </c>
-      <c r="G346" t="n">
-        <v>1</v>
-      </c>
-      <c r="H346" t="s">
-        <v>4</v>
-      </c>
-      <c r="I346" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1</v>
-      </c>
-      <c r="D347" t="n">
-        <v>346</v>
-      </c>
-      <c r="E347" t="s">
-        <v>687</v>
-      </c>
-      <c r="F347" t="s">
-        <v>688</v>
-      </c>
-      <c r="G347" t="n">
-        <v>1</v>
-      </c>
-      <c r="H347" t="s">
-        <v>4</v>
-      </c>
-      <c r="I347" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1</v>
-      </c>
-      <c r="D348" t="n">
-        <v>347</v>
-      </c>
-      <c r="E348" t="s">
-        <v>689</v>
-      </c>
-      <c r="F348" t="s">
-        <v>690</v>
-      </c>
-      <c r="G348" t="n">
-        <v>1</v>
-      </c>
-      <c r="H348" t="s">
-        <v>4</v>
-      </c>
-      <c r="I348" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="s">
-        <v>0</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1</v>
-      </c>
-      <c r="D349" t="n">
-        <v>348</v>
-      </c>
-      <c r="E349" t="s">
-        <v>691</v>
-      </c>
-      <c r="F349" t="s">
-        <v>692</v>
-      </c>
-      <c r="G349" t="n">
-        <v>1</v>
-      </c>
-      <c r="H349" t="s">
-        <v>4</v>
-      </c>
-      <c r="I349" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="s">
-        <v>0</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1</v>
-      </c>
-      <c r="D350" t="n">
-        <v>349</v>
-      </c>
-      <c r="E350" t="s">
-        <v>693</v>
-      </c>
-      <c r="F350" t="s">
-        <v>694</v>
-      </c>
-      <c r="G350" t="n">
-        <v>1</v>
-      </c>
-      <c r="H350" t="s">
-        <v>4</v>
-      </c>
-      <c r="I350" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1</v>
-      </c>
-      <c r="D351" t="n">
-        <v>350</v>
-      </c>
-      <c r="E351" t="s">
-        <v>695</v>
-      </c>
-      <c r="F351" t="s">
-        <v>696</v>
-      </c>
-      <c r="G351" t="n">
-        <v>1</v>
-      </c>
-      <c r="H351" t="s">
-        <v>4</v>
-      </c>
-      <c r="I351" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1</v>
-      </c>
-      <c r="D352" t="n">
-        <v>351</v>
-      </c>
-      <c r="E352" t="s">
-        <v>697</v>
-      </c>
-      <c r="F352" t="s">
-        <v>698</v>
-      </c>
-      <c r="G352" t="n">
-        <v>1</v>
-      </c>
-      <c r="H352" t="s">
-        <v>4</v>
-      </c>
-      <c r="I352" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" t="n">
-        <v>352</v>
-      </c>
-      <c r="E353" t="s">
-        <v>699</v>
-      </c>
-      <c r="F353" t="s">
-        <v>700</v>
-      </c>
-      <c r="G353" t="n">
-        <v>1</v>
-      </c>
-      <c r="H353" t="s">
-        <v>4</v>
-      </c>
-      <c r="I353" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="s">
-        <v>0</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1</v>
-      </c>
-      <c r="D354" t="n">
-        <v>353</v>
-      </c>
-      <c r="E354" t="s">
-        <v>701</v>
-      </c>
-      <c r="F354" t="s">
-        <v>702</v>
-      </c>
-      <c r="G354" t="n">
-        <v>1</v>
-      </c>
-      <c r="H354" t="s">
-        <v>4</v>
-      </c>
-      <c r="I354" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="s">
-        <v>0</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" t="n">
-        <v>354</v>
-      </c>
-      <c r="E355" t="s">
-        <v>703</v>
-      </c>
-      <c r="F355" t="s">
-        <v>704</v>
-      </c>
-      <c r="G355" t="n">
-        <v>1</v>
-      </c>
-      <c r="H355" t="s">
-        <v>4</v>
-      </c>
-      <c r="I355" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="s">
-        <v>0</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>355</v>
-      </c>
-      <c r="E356" t="s">
-        <v>705</v>
-      </c>
-      <c r="F356" t="s">
-        <v>706</v>
-      </c>
-      <c r="G356" t="n">
-        <v>1</v>
-      </c>
-      <c r="H356" t="s">
-        <v>4</v>
-      </c>
-      <c r="I356" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="s">
-        <v>0</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1</v>
-      </c>
-      <c r="D357" t="n">
-        <v>356</v>
-      </c>
-      <c r="E357" t="s">
-        <v>707</v>
-      </c>
-      <c r="F357" t="s">
-        <v>708</v>
-      </c>
-      <c r="G357" t="n">
-        <v>2</v>
-      </c>
-      <c r="H357" t="s">
-        <v>4</v>
-      </c>
-      <c r="I357" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1</v>
-      </c>
-      <c r="D358" t="n">
-        <v>357</v>
-      </c>
-      <c r="E358" t="s">
-        <v>709</v>
-      </c>
-      <c r="F358" t="s">
-        <v>710</v>
-      </c>
-      <c r="G358" t="n">
-        <v>1</v>
-      </c>
-      <c r="H358" t="s">
-        <v>4</v>
-      </c>
-      <c r="I358" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="s">
-        <v>0</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1</v>
-      </c>
-      <c r="D359" t="n">
-        <v>358</v>
-      </c>
-      <c r="E359" t="s">
-        <v>711</v>
-      </c>
-      <c r="F359" t="s">
-        <v>712</v>
-      </c>
-      <c r="G359" t="n">
-        <v>1</v>
-      </c>
-      <c r="H359" t="s">
-        <v>4</v>
-      </c>
-      <c r="I359" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="s">
-        <v>0</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1</v>
-      </c>
-      <c r="D360" t="n">
-        <v>359</v>
-      </c>
-      <c r="E360" t="s">
-        <v>713</v>
-      </c>
-      <c r="F360" t="s">
-        <v>714</v>
-      </c>
-      <c r="G360" t="n">
-        <v>1</v>
-      </c>
-      <c r="H360" t="s">
-        <v>4</v>
-      </c>
-      <c r="I360" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="s">
-        <v>0</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1</v>
-      </c>
-      <c r="D361" t="n">
-        <v>360</v>
-      </c>
-      <c r="E361" t="s">
-        <v>715</v>
-      </c>
-      <c r="F361" t="s">
-        <v>716</v>
-      </c>
-      <c r="G361" t="n">
-        <v>1</v>
-      </c>
-      <c r="H361" t="s">
-        <v>4</v>
-      </c>
-      <c r="I361" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="s">
-        <v>0</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1</v>
-      </c>
-      <c r="D362" t="n">
-        <v>361</v>
-      </c>
-      <c r="E362" t="s">
-        <v>717</v>
-      </c>
-      <c r="F362" t="s">
-        <v>718</v>
-      </c>
-      <c r="G362" t="n">
-        <v>1</v>
-      </c>
-      <c r="H362" t="s">
-        <v>4</v>
-      </c>
-      <c r="I362" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="s">
-        <v>0</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1</v>
-      </c>
-      <c r="D363" t="n">
-        <v>362</v>
-      </c>
-      <c r="E363" t="s">
-        <v>719</v>
-      </c>
-      <c r="F363" t="s">
-        <v>720</v>
-      </c>
-      <c r="G363" t="n">
-        <v>1</v>
-      </c>
-      <c r="H363" t="s">
-        <v>4</v>
-      </c>
-      <c r="I363" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="s">
-        <v>0</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1</v>
-      </c>
-      <c r="D364" t="n">
-        <v>363</v>
-      </c>
-      <c r="E364" t="s">
-        <v>721</v>
-      </c>
-      <c r="F364" t="s">
-        <v>722</v>
-      </c>
-      <c r="G364" t="n">
-        <v>1</v>
-      </c>
-      <c r="H364" t="s">
-        <v>4</v>
-      </c>
-      <c r="I364" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="s">
-        <v>0</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1</v>
-      </c>
-      <c r="D365" t="n">
-        <v>364</v>
-      </c>
-      <c r="E365" t="s">
-        <v>723</v>
-      </c>
-      <c r="F365" t="s">
-        <v>724</v>
-      </c>
-      <c r="G365" t="n">
-        <v>1</v>
-      </c>
-      <c r="H365" t="s">
-        <v>4</v>
-      </c>
-      <c r="I365" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="s">
-        <v>0</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1</v>
-      </c>
-      <c r="D366" t="n">
-        <v>365</v>
-      </c>
-      <c r="E366" t="s">
-        <v>725</v>
-      </c>
-      <c r="F366" t="s">
-        <v>726</v>
-      </c>
-      <c r="G366" t="n">
-        <v>1</v>
-      </c>
-      <c r="H366" t="s">
-        <v>4</v>
-      </c>
-      <c r="I366" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="s">
-        <v>0</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1</v>
-      </c>
-      <c r="D367" t="n">
-        <v>366</v>
-      </c>
-      <c r="E367" t="s">
-        <v>727</v>
-      </c>
-      <c r="F367" t="s">
-        <v>728</v>
-      </c>
-      <c r="G367" t="n">
-        <v>1</v>
-      </c>
-      <c r="H367" t="s">
-        <v>4</v>
-      </c>
-      <c r="I367" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="s">
-        <v>0</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1</v>
-      </c>
-      <c r="D368" t="n">
-        <v>367</v>
-      </c>
-      <c r="E368" t="s">
-        <v>729</v>
-      </c>
-      <c r="F368" t="s">
-        <v>730</v>
-      </c>
-      <c r="G368" t="n">
-        <v>1</v>
-      </c>
-      <c r="H368" t="s">
-        <v>4</v>
-      </c>
-      <c r="I368" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="s">
-        <v>0</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1</v>
-      </c>
-      <c r="D369" t="n">
-        <v>368</v>
-      </c>
-      <c r="E369" t="s">
-        <v>731</v>
-      </c>
-      <c r="F369" t="s">
-        <v>732</v>
-      </c>
-      <c r="G369" t="n">
-        <v>1</v>
-      </c>
-      <c r="H369" t="s">
-        <v>4</v>
-      </c>
-      <c r="I369" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="s">
-        <v>0</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1</v>
-      </c>
-      <c r="D370" t="n">
-        <v>369</v>
-      </c>
-      <c r="E370" t="s">
-        <v>733</v>
-      </c>
-      <c r="F370" t="s">
-        <v>734</v>
-      </c>
-      <c r="G370" t="n">
-        <v>1</v>
-      </c>
-      <c r="H370" t="s">
-        <v>4</v>
-      </c>
-      <c r="I370" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="s">
-        <v>0</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1</v>
-      </c>
-      <c r="D371" t="n">
-        <v>370</v>
-      </c>
-      <c r="E371" t="s">
-        <v>735</v>
-      </c>
-      <c r="F371" t="s">
-        <v>736</v>
-      </c>
-      <c r="G371" t="n">
-        <v>1</v>
-      </c>
-      <c r="H371" t="s">
-        <v>4</v>
-      </c>
-      <c r="I371" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="s">
-        <v>0</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1</v>
-      </c>
-      <c r="D372" t="n">
-        <v>371</v>
-      </c>
-      <c r="E372" t="s">
-        <v>737</v>
-      </c>
-      <c r="F372" t="s">
-        <v>738</v>
-      </c>
-      <c r="G372" t="n">
-        <v>1</v>
-      </c>
-      <c r="H372" t="s">
-        <v>4</v>
-      </c>
-      <c r="I372" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="s">
-        <v>0</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1</v>
-      </c>
-      <c r="D373" t="n">
-        <v>372</v>
-      </c>
-      <c r="E373" t="s">
-        <v>739</v>
-      </c>
-      <c r="F373" t="s">
-        <v>740</v>
-      </c>
-      <c r="G373" t="n">
-        <v>1</v>
-      </c>
-      <c r="H373" t="s">
-        <v>4</v>
-      </c>
-      <c r="I373" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="s">
-        <v>0</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1</v>
-      </c>
-      <c r="D374" t="n">
-        <v>373</v>
-      </c>
-      <c r="E374" t="s">
-        <v>741</v>
-      </c>
-      <c r="F374" t="s">
-        <v>742</v>
-      </c>
-      <c r="G374" t="n">
-        <v>1</v>
-      </c>
-      <c r="H374" t="s">
-        <v>4</v>
-      </c>
-      <c r="I374" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1</v>
-      </c>
-      <c r="D375" t="n">
-        <v>374</v>
-      </c>
-      <c r="E375" t="s">
-        <v>743</v>
-      </c>
-      <c r="F375" t="s">
-        <v>744</v>
-      </c>
-      <c r="G375" t="n">
-        <v>1</v>
-      </c>
-      <c r="H375" t="s">
-        <v>4</v>
-      </c>
-      <c r="I375" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="s">
-        <v>0</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1</v>
-      </c>
-      <c r="D376" t="n">
-        <v>375</v>
-      </c>
-      <c r="E376" t="s">
-        <v>745</v>
-      </c>
-      <c r="F376" t="s">
-        <v>746</v>
-      </c>
-      <c r="G376" t="n">
-        <v>1</v>
-      </c>
-      <c r="H376" t="s">
-        <v>4</v>
-      </c>
-      <c r="I376" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="s">
-        <v>0</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1</v>
-      </c>
-      <c r="D377" t="n">
-        <v>376</v>
-      </c>
-      <c r="E377" t="s">
-        <v>747</v>
-      </c>
-      <c r="F377" t="s">
-        <v>748</v>
-      </c>
-      <c r="G377" t="n">
-        <v>1</v>
-      </c>
-      <c r="H377" t="s">
-        <v>4</v>
-      </c>
-      <c r="I377" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="s">
-        <v>0</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1</v>
-      </c>
-      <c r="D378" t="n">
-        <v>377</v>
-      </c>
-      <c r="E378" t="s">
-        <v>749</v>
-      </c>
-      <c r="F378" t="s">
-        <v>750</v>
-      </c>
-      <c r="G378" t="n">
-        <v>1</v>
-      </c>
-      <c r="H378" t="s">
-        <v>4</v>
-      </c>
-      <c r="I378" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="s">
-        <v>0</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1</v>
-      </c>
-      <c r="D379" t="n">
-        <v>378</v>
-      </c>
-      <c r="E379" t="s">
-        <v>751</v>
-      </c>
-      <c r="F379" t="s">
-        <v>752</v>
-      </c>
-      <c r="G379" t="n">
-        <v>1</v>
-      </c>
-      <c r="H379" t="s">
-        <v>4</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1</v>
-      </c>
-      <c r="D380" t="n">
-        <v>379</v>
-      </c>
-      <c r="E380" t="s">
-        <v>753</v>
-      </c>
-      <c r="F380" t="s">
-        <v>754</v>
-      </c>
-      <c r="G380" t="n">
-        <v>1</v>
-      </c>
-      <c r="H380" t="s">
-        <v>4</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="s">
-        <v>0</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1</v>
-      </c>
-      <c r="D381" t="n">
-        <v>380</v>
-      </c>
-      <c r="E381" t="s">
-        <v>755</v>
-      </c>
-      <c r="F381" t="s">
-        <v>756</v>
-      </c>
-      <c r="G381" t="n">
-        <v>1</v>
-      </c>
-      <c r="H381" t="s">
-        <v>4</v>
-      </c>
-      <c r="I381" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="s">
-        <v>0</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1</v>
-      </c>
-      <c r="D382" t="n">
-        <v>381</v>
-      </c>
-      <c r="E382" t="s">
-        <v>757</v>
-      </c>
-      <c r="F382" t="s">
-        <v>758</v>
-      </c>
-      <c r="G382" t="n">
-        <v>1</v>
-      </c>
-      <c r="H382" t="s">
-        <v>4</v>
-      </c>
-      <c r="I382" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="s">
-        <v>0</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1</v>
-      </c>
-      <c r="D383" t="n">
-        <v>382</v>
-      </c>
-      <c r="E383" t="s">
-        <v>759</v>
-      </c>
-      <c r="F383" t="s">
-        <v>760</v>
-      </c>
-      <c r="G383" t="n">
-        <v>1</v>
-      </c>
-      <c r="H383" t="s">
-        <v>4</v>
-      </c>
-      <c r="I383" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="s">
-        <v>0</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1</v>
-      </c>
-      <c r="D384" t="n">
-        <v>383</v>
-      </c>
-      <c r="E384" t="s">
-        <v>761</v>
-      </c>
-      <c r="F384" t="s">
-        <v>762</v>
-      </c>
-      <c r="G384" t="n">
-        <v>1</v>
-      </c>
-      <c r="H384" t="s">
-        <v>4</v>
-      </c>
-      <c r="I384" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1</v>
-      </c>
-      <c r="D385" t="n">
-        <v>384</v>
-      </c>
-      <c r="E385" t="s">
-        <v>763</v>
-      </c>
-      <c r="F385" t="s">
-        <v>764</v>
-      </c>
-      <c r="G385" t="n">
-        <v>1</v>
-      </c>
-      <c r="H385" t="s">
-        <v>4</v>
-      </c>
-      <c r="I385" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="s">
-        <v>0</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1</v>
-      </c>
-      <c r="D386" t="n">
-        <v>385</v>
-      </c>
-      <c r="E386" t="s">
-        <v>765</v>
-      </c>
-      <c r="F386" t="s">
-        <v>766</v>
-      </c>
-      <c r="G386" t="n">
-        <v>1</v>
-      </c>
-      <c r="H386" t="s">
-        <v>4</v>
-      </c>
-      <c r="I386" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="s">
-        <v>0</v>
-      </c>
-      <c r="C387" t="s">
-        <v>1</v>
-      </c>
-      <c r="D387" t="n">
-        <v>386</v>
-      </c>
-      <c r="E387" t="s">
-        <v>767</v>
-      </c>
-      <c r="F387" t="s">
-        <v>768</v>
-      </c>
-      <c r="G387" t="n">
-        <v>1</v>
-      </c>
-      <c r="H387" t="s">
-        <v>4</v>
-      </c>
-      <c r="I387" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="s">
-        <v>0</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1</v>
-      </c>
-      <c r="D388" t="n">
-        <v>387</v>
-      </c>
-      <c r="E388" t="s">
-        <v>769</v>
-      </c>
-      <c r="F388" t="s">
-        <v>770</v>
-      </c>
-      <c r="G388" t="n">
-        <v>1</v>
-      </c>
-      <c r="H388" t="s">
-        <v>4</v>
-      </c>
-      <c r="I388" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="s">
-        <v>0</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1</v>
-      </c>
-      <c r="D389" t="n">
-        <v>388</v>
-      </c>
-      <c r="E389" t="s">
-        <v>771</v>
-      </c>
-      <c r="F389" t="s">
-        <v>772</v>
-      </c>
-      <c r="G389" t="n">
-        <v>1</v>
-      </c>
-      <c r="H389" t="s">
-        <v>4</v>
-      </c>
-      <c r="I389" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="s">
-        <v>0</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1</v>
-      </c>
-      <c r="D390" t="n">
-        <v>389</v>
-      </c>
-      <c r="E390" t="s">
-        <v>773</v>
-      </c>
-      <c r="F390" t="s">
-        <v>774</v>
-      </c>
-      <c r="G390" t="n">
-        <v>1</v>
-      </c>
-      <c r="H390" t="s">
-        <v>4</v>
-      </c>
-      <c r="I390" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="s">
-        <v>0</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1</v>
-      </c>
-      <c r="D391" t="n">
-        <v>390</v>
-      </c>
-      <c r="E391" t="s">
-        <v>775</v>
-      </c>
-      <c r="F391" t="s">
-        <v>776</v>
-      </c>
-      <c r="G391" t="n">
-        <v>1</v>
-      </c>
-      <c r="H391" t="s">
-        <v>4</v>
-      </c>
-      <c r="I391" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="s">
-        <v>0</v>
-      </c>
-      <c r="C392" t="s">
-        <v>1</v>
-      </c>
-      <c r="D392" t="n">
-        <v>391</v>
-      </c>
-      <c r="E392" t="s">
-        <v>777</v>
-      </c>
-      <c r="F392" t="s">
-        <v>778</v>
-      </c>
-      <c r="G392" t="n">
-        <v>1</v>
-      </c>
-      <c r="H392" t="s">
-        <v>4</v>
-      </c>
-      <c r="I392" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="s">
-        <v>0</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1</v>
-      </c>
-      <c r="D393" t="n">
-        <v>392</v>
-      </c>
-      <c r="E393" t="s">
-        <v>779</v>
-      </c>
-      <c r="F393" t="s">
-        <v>780</v>
-      </c>
-      <c r="G393" t="n">
-        <v>1</v>
-      </c>
-      <c r="H393" t="s">
-        <v>4</v>
-      </c>
-      <c r="I393" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C394" t="s">
-        <v>1</v>
-      </c>
-      <c r="D394" t="n">
-        <v>393</v>
-      </c>
-      <c r="E394" t="s">
-        <v>781</v>
-      </c>
-      <c r="F394" t="s">
-        <v>782</v>
-      </c>
-      <c r="G394" t="n">
-        <v>1</v>
-      </c>
-      <c r="H394" t="s">
-        <v>4</v>
-      </c>
-      <c r="I394" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="s">
-        <v>0</v>
-      </c>
-      <c r="C395" t="s">
-        <v>1</v>
-      </c>
-      <c r="D395" t="n">
-        <v>394</v>
-      </c>
-      <c r="E395" t="s">
-        <v>783</v>
-      </c>
-      <c r="F395" t="s">
-        <v>784</v>
-      </c>
-      <c r="G395" t="n">
-        <v>1</v>
-      </c>
-      <c r="H395" t="s">
-        <v>4</v>
-      </c>
-      <c r="I395" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="s">
-        <v>0</v>
-      </c>
-      <c r="C396" t="s">
-        <v>1</v>
-      </c>
-      <c r="D396" t="n">
-        <v>395</v>
-      </c>
-      <c r="E396" t="s">
-        <v>785</v>
-      </c>
-      <c r="F396" t="s">
-        <v>786</v>
-      </c>
-      <c r="G396" t="n">
-        <v>1</v>
-      </c>
-      <c r="H396" t="s">
-        <v>4</v>
-      </c>
-      <c r="I396" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="s">
-        <v>0</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1</v>
-      </c>
-      <c r="D397" t="n">
-        <v>396</v>
-      </c>
-      <c r="E397" t="s">
-        <v>787</v>
-      </c>
-      <c r="F397" t="s">
-        <v>788</v>
-      </c>
-      <c r="G397" t="n">
-        <v>1</v>
-      </c>
-      <c r="H397" t="s">
-        <v>4</v>
-      </c>
-      <c r="I397" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="s">
-        <v>0</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1</v>
-      </c>
-      <c r="D398" t="n">
-        <v>397</v>
-      </c>
-      <c r="E398" t="s">
-        <v>789</v>
-      </c>
-      <c r="F398" t="s">
-        <v>790</v>
-      </c>
-      <c r="G398" t="n">
-        <v>1</v>
-      </c>
-      <c r="H398" t="s">
-        <v>4</v>
-      </c>
-      <c r="I398" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="s">
-        <v>0</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1</v>
-      </c>
-      <c r="D399" t="n">
-        <v>398</v>
-      </c>
-      <c r="E399" t="s">
-        <v>791</v>
-      </c>
-      <c r="F399" t="s">
-        <v>792</v>
-      </c>
-      <c r="G399" t="n">
-        <v>1</v>
-      </c>
-      <c r="H399" t="s">
-        <v>4</v>
-      </c>
-      <c r="I399" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1</v>
-      </c>
-      <c r="D400" t="n">
-        <v>399</v>
-      </c>
-      <c r="E400" t="s">
-        <v>793</v>
-      </c>
-      <c r="F400" t="s">
-        <v>794</v>
-      </c>
-      <c r="G400" t="n">
-        <v>1</v>
-      </c>
-      <c r="H400" t="s">
-        <v>4</v>
-      </c>
-      <c r="I400" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="s">
-        <v>0</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1</v>
-      </c>
-      <c r="D401" t="n">
-        <v>400</v>
-      </c>
-      <c r="E401" t="s">
-        <v>795</v>
-      </c>
-      <c r="F401" t="s">
-        <v>796</v>
-      </c>
-      <c r="G401" t="n">
-        <v>1</v>
-      </c>
-      <c r="H401" t="s">
-        <v>4</v>
-      </c>
-      <c r="I401" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1</v>
-      </c>
-      <c r="D402" t="n">
-        <v>401</v>
-      </c>
-      <c r="E402" t="s">
-        <v>797</v>
-      </c>
-      <c r="F402" t="s">
-        <v>798</v>
-      </c>
-      <c r="G402" t="n">
-        <v>1</v>
-      </c>
-      <c r="H402" t="s">
-        <v>4</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="s">
-        <v>0</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1</v>
-      </c>
-      <c r="D403" t="n">
-        <v>402</v>
-      </c>
-      <c r="E403" t="s">
-        <v>799</v>
-      </c>
-      <c r="F403" t="s">
-        <v>800</v>
-      </c>
-      <c r="G403" t="n">
-        <v>1</v>
-      </c>
-      <c r="H403" t="s">
-        <v>4</v>
-      </c>
-      <c r="I403" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1</v>
-      </c>
-      <c r="D404" t="n">
-        <v>403</v>
-      </c>
-      <c r="E404" t="s">
-        <v>801</v>
-      </c>
-      <c r="F404" t="s">
-        <v>802</v>
-      </c>
-      <c r="G404" t="n">
-        <v>1</v>
-      </c>
-      <c r="H404" t="s">
-        <v>4</v>
-      </c>
-      <c r="I404" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="s">
-        <v>0</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1</v>
-      </c>
-      <c r="D405" t="n">
-        <v>404</v>
-      </c>
-      <c r="E405" t="s">
-        <v>803</v>
-      </c>
-      <c r="F405" t="s">
-        <v>804</v>
-      </c>
-      <c r="G405" t="n">
-        <v>1</v>
-      </c>
-      <c r="H405" t="s">
-        <v>4</v>
-      </c>
-      <c r="I405" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="s">
-        <v>0</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1</v>
-      </c>
-      <c r="D406" t="n">
-        <v>405</v>
-      </c>
-      <c r="E406" t="s">
-        <v>805</v>
-      </c>
-      <c r="F406" t="s">
-        <v>806</v>
-      </c>
-      <c r="G406" t="n">
-        <v>1</v>
-      </c>
-      <c r="H406" t="s">
-        <v>4</v>
-      </c>
-      <c r="I406" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="s">
-        <v>0</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1</v>
-      </c>
-      <c r="D407" t="n">
-        <v>406</v>
-      </c>
-      <c r="E407" t="s">
-        <v>807</v>
-      </c>
-      <c r="F407" t="s">
-        <v>808</v>
-      </c>
-      <c r="G407" t="n">
-        <v>1</v>
-      </c>
-      <c r="H407" t="s">
-        <v>4</v>
-      </c>
-      <c r="I407" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1</v>
-      </c>
-      <c r="D408" t="n">
-        <v>407</v>
-      </c>
-      <c r="E408" t="s">
-        <v>809</v>
-      </c>
-      <c r="F408" t="s">
-        <v>810</v>
-      </c>
-      <c r="G408" t="n">
-        <v>1</v>
-      </c>
-      <c r="H408" t="s">
-        <v>4</v>
-      </c>
-      <c r="I408" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="s">
-        <v>0</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1</v>
-      </c>
-      <c r="D409" t="n">
-        <v>408</v>
-      </c>
-      <c r="E409" t="s">
-        <v>811</v>
-      </c>
-      <c r="F409" t="s">
-        <v>812</v>
-      </c>
-      <c r="G409" t="n">
-        <v>1</v>
-      </c>
-      <c r="H409" t="s">
-        <v>4</v>
-      </c>
-      <c r="I409" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="s">
-        <v>0</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1</v>
-      </c>
-      <c r="D410" t="n">
-        <v>409</v>
-      </c>
-      <c r="E410" t="s">
-        <v>813</v>
-      </c>
-      <c r="F410" t="s">
-        <v>814</v>
-      </c>
-      <c r="G410" t="n">
-        <v>1</v>
-      </c>
-      <c r="H410" t="s">
-        <v>4</v>
-      </c>
-      <c r="I410" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1</v>
-      </c>
-      <c r="D411" t="n">
-        <v>410</v>
-      </c>
-      <c r="E411" t="s">
-        <v>815</v>
-      </c>
-      <c r="F411" t="s">
-        <v>816</v>
-      </c>
-      <c r="G411" t="n">
-        <v>1</v>
-      </c>
-      <c r="H411" t="s">
-        <v>4</v>
-      </c>
-      <c r="I411" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1</v>
-      </c>
-      <c r="D412" t="n">
-        <v>411</v>
-      </c>
-      <c r="E412" t="s">
-        <v>817</v>
-      </c>
-      <c r="F412" t="s">
-        <v>818</v>
-      </c>
-      <c r="G412" t="n">
-        <v>1</v>
-      </c>
-      <c r="H412" t="s">
-        <v>4</v>
-      </c>
-      <c r="I412" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="s">
-        <v>0</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1</v>
-      </c>
-      <c r="D413" t="n">
-        <v>412</v>
-      </c>
-      <c r="E413" t="s">
-        <v>819</v>
-      </c>
-      <c r="F413" t="s">
-        <v>820</v>
-      </c>
-      <c r="G413" t="n">
-        <v>1</v>
-      </c>
-      <c r="H413" t="s">
-        <v>4</v>
-      </c>
-      <c r="I413" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="s">
-        <v>0</v>
-      </c>
-      <c r="C414" t="s">
-        <v>1</v>
-      </c>
-      <c r="D414" t="n">
-        <v>413</v>
-      </c>
-      <c r="E414" t="s">
-        <v>821</v>
-      </c>
-      <c r="F414" t="s">
-        <v>822</v>
-      </c>
-      <c r="G414" t="n">
-        <v>1</v>
-      </c>
-      <c r="H414" t="s">
-        <v>4</v>
-      </c>
-      <c r="I414" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="s">
-        <v>0</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1</v>
-      </c>
-      <c r="D415" t="n">
-        <v>414</v>
-      </c>
-      <c r="E415" t="s">
-        <v>823</v>
-      </c>
-      <c r="F415" t="s">
-        <v>824</v>
-      </c>
-      <c r="G415" t="n">
-        <v>1</v>
-      </c>
-      <c r="H415" t="s">
-        <v>4</v>
-      </c>
-      <c r="I415" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="s">
-        <v>0</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1</v>
-      </c>
-      <c r="D416" t="n">
-        <v>415</v>
-      </c>
-      <c r="E416" t="s">
-        <v>825</v>
-      </c>
-      <c r="F416" t="s">
-        <v>826</v>
-      </c>
-      <c r="G416" t="n">
-        <v>1</v>
-      </c>
-      <c r="H416" t="s">
-        <v>4</v>
-      </c>
-      <c r="I416" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="s">
-        <v>0</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1</v>
-      </c>
-      <c r="D417" t="n">
-        <v>416</v>
-      </c>
-      <c r="E417" t="s">
-        <v>827</v>
-      </c>
-      <c r="F417" t="s">
-        <v>828</v>
-      </c>
-      <c r="G417" t="n">
-        <v>1</v>
-      </c>
-      <c r="H417" t="s">
-        <v>4</v>
-      </c>
-      <c r="I417" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="s">
-        <v>0</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1</v>
-      </c>
-      <c r="D418" t="n">
-        <v>417</v>
-      </c>
-      <c r="E418" t="s">
-        <v>829</v>
-      </c>
-      <c r="F418" t="s">
-        <v>830</v>
-      </c>
-      <c r="G418" t="n">
-        <v>1</v>
-      </c>
-      <c r="H418" t="s">
-        <v>4</v>
-      </c>
-      <c r="I418" t="n">
         <v>2</v>
       </c>
     </row>

--- a/xlsx/政策_政策_政治_intext.xlsx
+++ b/xlsx/政策_政策_政治_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>政治</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>政策_政策_政治</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
@@ -383,9 +383,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
   </si>
   <si>
-    <t>社会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E8%B1%A1</t>
   </si>
   <si>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8_(%E7%B6%93)</t>
   </si>
   <si>
-    <t>尚書 (經)</t>
+    <t>尚书 (经)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E7%A4%BC</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>禮儀</t>
+    <t>礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E7%90%A6</t>
@@ -599,19 +596,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>中央集權</t>
+    <t>中央集权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>帝國</t>
+    <t>帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E5%A7%8B%E7%9A%87</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
@@ -683,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭王國</t>
+    <t>爱尔兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1648%E5%B9%B4</t>
@@ -713,13 +707,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>世俗國家</t>
+    <t>世俗国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E7%8E%8B</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>馬克思</t>
+    <t>马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B1%82%E5%BB%BA%E7%AD%91</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>國家安全</t>
+    <t>国家安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%A9%E7%9B%8A</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
@@ -821,31 +812,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%A4%A7%E7%99%BC%E7%8F%BE</t>
   </si>
   <si>
-    <t>地理大發現</t>
+    <t>地理大发现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>經濟全球化</t>
+    <t>经济全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9%E6%94%BF%E6%B2%BB%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>資本主義政治經濟學</t>
+    <t>资本主义政治经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>地緣政治學</t>
+    <t>地缘政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產主義國家</t>
+    <t>共产主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
@@ -905,25 +896,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%94%BF</t>
   </si>
   <si>
-    <t>內政</t>
+    <t>内政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -947,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%89%B9%E8%89%B2%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中國特色社會主義</t>
+    <t>中国特色社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>越南社會主義共和國</t>
+    <t>越南社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
@@ -965,31 +956,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>政黨政治</t>
+    <t>政党政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%B6%B1</t>
   </si>
   <si>
-    <t>政綱</t>
+    <t>政纲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%94%BF%E6%9D%83</t>
@@ -1007,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E9%87%8E%E9%BB%A8</t>
   </si>
   <si>
-    <t>在野黨</t>
+    <t>在野党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AF%B9%E5%85%9A</t>
@@ -1025,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>政黨體系</t>
+    <t>政党体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E7%8B%AC%E8%A3%81%E5%88%B6</t>
@@ -1043,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E5%88%B6</t>
@@ -1055,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E5%92%8C%E5%8F%B3%E6%B4%BE</t>
@@ -1067,19 +1052,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%82%BE%E5%90%91%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>政治傾向測試</t>
+    <t>政治倾向测试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BE%85%E7%9B%A4</t>
   </si>
   <si>
-    <t>政治羅盤</t>
+    <t>政治罗盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pournelle_chart</t>
@@ -1097,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE</t>
@@ -1109,37 +1091,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E6%B4%BE</t>
   </si>
   <si>
-    <t>中間派</t>
+    <t>中间派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%98%AD%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>諾蘭曲線</t>
+    <t>诺兰曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%85%90%E6%95%97</t>
   </si>
   <si>
-    <t>政治腐敗</t>
+    <t>政治腐败</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%BF%AB%E5%AE%B3</t>
@@ -1151,19 +1133,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E8%85%90</t>
   </si>
   <si>
-    <t>貪腐</t>
+    <t>贪腐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%84%E8%B3%82</t>
   </si>
   <si>
-    <t>賄賂</t>
+    <t>贿赂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%BC%B8%E9%80%81</t>
   </si>
   <si>
-    <t>利益輸送</t>
+    <t>利益输送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E7%B4%A2</t>
@@ -1175,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%99%E5%B8%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>裙帶關係</t>
+    <t>裙带关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%8C%AE%E9%87%91</t>
@@ -1199,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E7%9B%9C%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>竊盜統治</t>
+    <t>窃盗统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -1217,43 +1199,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AC%E4%BB%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>責任制</t>
+    <t>责任制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計學</t>
+    <t>统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>透明國際</t>
+    <t>透明国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%BB%89%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>清廉指數</t>
+    <t>清廉指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -1283,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%C2%B7%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯·道爾</t>
+    <t>罗伯·道尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1301,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系論</t>
+    <t>世界体系论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E8%B3%B4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>依賴理論</t>
+    <t>依赖理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E4%B8%BB%E4%B9%89</t>
@@ -1331,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%88%86%E5%B7%A5%E8%AE%BA</t>
@@ -1445,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1457,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3580,7 +3562,7 @@
         <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G61" t="n">
         <v>24</v>
@@ -3606,10 +3588,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3635,10 +3617,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3664,10 +3646,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3693,10 +3675,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3722,10 +3704,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>10</v>
@@ -3751,10 +3733,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3780,10 +3762,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3809,10 +3791,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3838,10 +3820,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3867,10 +3849,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -3896,10 +3878,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3925,10 +3907,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3954,10 +3936,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3983,10 +3965,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4012,10 +3994,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4041,10 +4023,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4070,10 +4052,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4099,10 +4081,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4128,10 +4110,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4157,10 +4139,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4186,10 +4168,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>16</v>
@@ -4215,10 +4197,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4244,10 +4226,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4273,10 +4255,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4302,10 +4284,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4331,10 +4313,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4360,10 +4342,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4418,10 +4400,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4447,10 +4429,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4476,10 +4458,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4505,10 +4487,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4534,10 +4516,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4563,10 +4545,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4592,10 +4574,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4621,10 +4603,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4650,10 +4632,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4679,10 +4661,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4708,10 +4690,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4737,10 +4719,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4766,10 +4748,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4795,10 +4777,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4824,10 +4806,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4853,10 +4835,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4882,10 +4864,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4911,10 +4893,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4940,10 +4922,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4969,10 +4951,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4998,10 +4980,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5027,10 +5009,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5056,10 +5038,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5085,10 +5067,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5114,10 +5096,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5143,10 +5125,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5172,10 +5154,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5201,10 +5183,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
@@ -5230,10 +5212,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5259,10 +5241,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5288,10 +5270,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5317,10 +5299,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5346,10 +5328,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5375,10 +5357,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>15</v>
@@ -5404,10 +5386,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5433,10 +5415,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5462,10 +5444,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5491,10 +5473,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5520,10 +5502,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5549,10 +5531,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5578,10 +5560,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -5607,10 +5589,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5636,10 +5618,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5665,10 +5647,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5694,10 +5676,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5723,10 +5705,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5752,10 +5734,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5781,10 +5763,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5810,10 +5792,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5839,10 +5821,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5868,10 +5850,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5897,10 +5879,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5926,10 +5908,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5955,10 +5937,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5984,10 +5966,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6013,10 +5995,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6042,10 +6024,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6071,10 +6053,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6100,10 +6082,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6129,10 +6111,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6158,10 +6140,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6187,10 +6169,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6216,10 +6198,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6245,10 +6227,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6274,10 +6256,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6303,10 +6285,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6332,10 +6314,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6361,10 +6343,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6390,10 +6372,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6419,10 +6401,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6448,10 +6430,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -6477,10 +6459,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>92</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6506,10 +6488,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6535,10 +6517,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6564,10 +6546,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6593,10 +6575,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6622,10 +6604,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6651,10 +6633,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6680,10 +6662,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6709,10 +6691,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6738,10 +6720,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6767,10 +6749,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6796,10 +6778,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6825,10 +6807,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6854,10 +6836,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6883,10 +6865,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>6</v>
@@ -6912,10 +6894,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6941,10 +6923,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="G177" t="n">
         <v>9</v>
@@ -6970,10 +6952,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6999,10 +6981,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7028,10 +7010,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7057,10 +7039,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>5</v>
@@ -7086,10 +7068,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7115,10 +7097,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -7144,10 +7126,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7173,10 +7155,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7202,10 +7184,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7231,10 +7213,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7260,10 +7242,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7289,10 +7271,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>12</v>
@@ -7318,10 +7300,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7347,10 +7329,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7376,10 +7358,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7405,10 +7387,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7434,10 +7416,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7463,10 +7445,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7492,10 +7474,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7521,10 +7503,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7550,10 +7532,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7579,10 +7561,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7608,10 +7590,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7637,10 +7619,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7666,10 +7648,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7695,10 +7677,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7724,10 +7706,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7753,10 +7735,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7782,10 +7764,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7811,10 +7793,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7840,10 +7822,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7869,10 +7851,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7898,10 +7880,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7927,10 +7909,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7956,10 +7938,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -7985,10 +7967,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8014,10 +7996,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>6</v>
@@ -8043,10 +8025,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8072,10 +8054,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8101,10 +8083,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8130,10 +8112,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8159,10 +8141,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8188,10 +8170,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8217,10 +8199,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8246,10 +8228,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8275,10 +8257,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>4</v>
@@ -8304,10 +8286,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -8333,10 +8315,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8362,10 +8344,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8391,10 +8373,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8449,10 +8431,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8478,10 +8460,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -8507,10 +8489,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8536,10 +8518,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>6</v>
@@ -8565,10 +8547,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8594,10 +8576,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -8623,10 +8605,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8652,10 +8634,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8681,10 +8663,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8710,10 +8692,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8739,10 +8721,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8768,10 +8750,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8797,10 +8779,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -8826,10 +8808,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8855,10 +8837,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8884,10 +8866,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8913,10 +8895,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
